--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/15/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/15/seed3/result_data_KNN.xlsx
@@ -550,7 +550,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.559999999999999</v>
+        <v>-8.669</v>
       </c>
     </row>
     <row r="9">
@@ -578,7 +578,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.684</v>
+        <v>-8.099</v>
       </c>
     </row>
     <row r="11">
@@ -606,7 +606,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.841999999999999</v>
+        <v>-6.725</v>
       </c>
     </row>
     <row r="13">
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.034000000000001</v>
+        <v>-8.318999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -956,7 +956,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-8.148</v>
+        <v>-8.315</v>
       </c>
     </row>
     <row r="38">
@@ -1208,7 +1208,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.370000000000001</v>
+        <v>-8.218</v>
       </c>
     </row>
     <row r="56">
@@ -1390,7 +1390,7 @@
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.842000000000001</v>
+        <v>-7.229000000000001</v>
       </c>
     </row>
     <row r="69">
@@ -1516,7 +1516,7 @@
         <v>-9.57</v>
       </c>
       <c r="D77" t="n">
-        <v>-7.720000000000001</v>
+        <v>-7.840000000000001</v>
       </c>
     </row>
     <row r="78">
@@ -1530,7 +1530,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.720000000000001</v>
+        <v>-8.279</v>
       </c>
     </row>
     <row r="79">
@@ -1572,7 +1572,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-8.491999999999999</v>
+        <v>-7.754</v>
       </c>
     </row>
     <row r="82">
@@ -1586,7 +1586,7 @@
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.077999999999999</v>
+        <v>-8.17</v>
       </c>
     </row>
     <row r="83">
